--- a/3.results/model_selection/mouette_pygmee_HR_2_covariates_blocks.xlsx
+++ b/3.results/model_selection/mouette_pygmee_HR_2_covariates_blocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schroll\Documents\stage_M2\3.results\model_selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF0A793-4177-40AB-A8A2-6471798170C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D46572C-7D0A-441D-848A-395E114497DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="static_covs" sheetId="1" r:id="rId1"/>
@@ -1004,22 +1004,22 @@
         <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0229999999999999</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>187.9</v>
+        <v>219.9</v>
       </c>
       <c r="D2" s="1">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="E2" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F2" s="1">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="G2" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="1">
         <v>741</v>
@@ -1031,10 +1031,10 @@
         <v>1468</v>
       </c>
       <c r="K2" s="1">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L2" s="1">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M2" s="1">
         <v>1481</v>
@@ -1049,10 +1049,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0389999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="C3" s="1">
-        <v>119</v>
+        <v>150.6</v>
       </c>
       <c r="D3" s="1">
         <v>0.49</v>
@@ -1061,7 +1061,7 @@
         <v>0.51</v>
       </c>
       <c r="F3" s="1">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="G3" s="1">
         <v>0.5</v>
@@ -1079,18 +1079,18 @@
         <v>735</v>
       </c>
       <c r="L3" s="1">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M3" s="1">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B4" s="1">
-        <v>1.071</v>
+        <v>1.024</v>
       </c>
       <c r="C4" s="1">
-        <v>87.2</v>
+        <v>94.6</v>
       </c>
       <c r="D4" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="E4" s="1">
         <v>0.49</v>
       </c>
-      <c r="E4" s="1">
-        <v>0.5</v>
-      </c>
       <c r="F4" s="1">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="G4" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="1">
         <v>740</v>
@@ -1125,20 +1125,20 @@
         <v>1467</v>
       </c>
       <c r="K4" s="1">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="L4" s="1">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="M4" s="1">
         <v>1481</v>
       </c>
       <c r="N4" s="1">
-        <v>1.05</v>
+        <v>0.89</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.53</v>
       </c>
       <c r="Q4" s="1"/>
     </row>
@@ -1147,22 +1147,22 @@
         <v>20</v>
       </c>
       <c r="B5" s="1">
-        <v>1.006</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>282.39999999999998</v>
+        <v>255.3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="E5" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="1">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="G5" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="1">
         <v>720</v>
@@ -1174,25 +1174,25 @@
         <v>1405</v>
       </c>
       <c r="K5" s="1">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="L5" s="1">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M5" s="1">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="N5" s="1">
-        <v>-1.93</v>
+        <v>-1.96</v>
       </c>
       <c r="O5" s="1">
-        <v>2.85</v>
+        <v>2.91</v>
       </c>
       <c r="P5" s="1">
         <v>0.42</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
     </row>
   </sheetData>
@@ -1230,7 +1230,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="25" priority="11">
-      <formula>H2&lt;725</formula>
+      <formula>H2&lt;722</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
@@ -1243,7 +1243,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="24" priority="9">
-      <formula>I2&lt;690</formula>
+      <formula>I2&lt;687</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J5">
@@ -1256,7 +1256,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="23" priority="7">
-      <formula>J2&lt;1410</formula>
+      <formula>J2&lt;1407</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
@@ -1269,7 +1269,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="5">
-      <formula>K2&lt;729</formula>
+      <formula>K2&lt;724</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L5">
@@ -1282,7 +1282,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="21" priority="3">
-      <formula>L2&lt;699</formula>
+      <formula>L2&lt;695</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M5">
@@ -1295,7 +1295,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="1">
-      <formula>M2&lt;1423</formula>
+      <formula>M2&lt;1417</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1308,7 +1308,7 @@
   <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,22 +1395,22 @@
         <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0229999999999999</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>187.9</v>
+        <v>219.9</v>
       </c>
       <c r="D2" s="1">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="E2" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F2" s="1">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="G2" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="1">
         <v>741</v>
@@ -1422,10 +1422,10 @@
         <v>1468</v>
       </c>
       <c r="K2" s="1">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L2" s="1">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M2" s="1">
         <v>1481</v>
@@ -1448,22 +1448,22 @@
         <v>33</v>
       </c>
       <c r="B3" s="1">
-        <v>1.3540000000000001</v>
+        <v>1.37</v>
       </c>
       <c r="C3" s="1">
-        <v>24.6</v>
+        <v>25.6</v>
       </c>
       <c r="D3" s="1">
         <v>0.48</v>
       </c>
       <c r="E3" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F3" s="1">
         <v>0.2</v>
       </c>
       <c r="G3" s="1">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="H3" s="1">
         <v>743</v>
@@ -1475,20 +1475,20 @@
         <v>1472</v>
       </c>
       <c r="K3" s="1">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="L3" s="1">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="M3" s="1">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1">
-        <v>-0.06</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -1496,7 +1496,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1">
-        <v>1.24</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="Y3" s="1"/>
     </row>
@@ -1505,44 +1505,44 @@
         <v>34</v>
       </c>
       <c r="B4" s="1">
-        <v>1.339</v>
+        <v>1.1439999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>63.8</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="D4" s="1">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="E4" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="F4" s="1">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="G4" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H4" s="1">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="I4" s="1">
         <v>718</v>
       </c>
       <c r="J4" s="1">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="K4" s="1">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="L4" s="1">
         <v>723</v>
       </c>
       <c r="M4" s="1">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1">
-        <v>-1.77</v>
+        <v>-1.64</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1550,7 +1550,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1">
-        <v>0.63</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -1562,46 +1562,46 @@
         <v>35</v>
       </c>
       <c r="B5" s="1">
-        <v>1.089</v>
+        <v>1.036</v>
       </c>
       <c r="C5" s="1">
-        <v>120.2</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="D5" s="1">
         <v>0.47</v>
       </c>
       <c r="E5" s="1">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="F5" s="1">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="G5" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="1">
         <v>736</v>
       </c>
       <c r="I5" s="1">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J5" s="1">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="K5" s="1">
         <v>739</v>
       </c>
       <c r="L5" s="1">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="M5" s="1">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1">
-        <v>-1.29</v>
+        <v>-1.47</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -1609,7 +1609,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.69</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
@@ -1619,43 +1619,43 @@
         <v>36</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0509999999999999</v>
+        <v>1.073</v>
       </c>
       <c r="C6" s="1">
-        <v>58.5</v>
+        <v>102.1</v>
       </c>
       <c r="D6" s="1">
         <v>0.46</v>
       </c>
       <c r="E6" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F6" s="1">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G6" s="1">
         <v>0.5</v>
       </c>
       <c r="H6" s="1">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I6" s="1">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="J6" s="1">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="K6" s="1">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="L6" s="1">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="M6" s="1">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="N6" s="1">
-        <v>-2.2400000000000002</v>
+        <v>-2.5099999999999998</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1663,7 +1663,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1">
-        <v>1.04</v>
+        <v>0.74</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
@@ -1676,19 +1676,19 @@
         <v>37</v>
       </c>
       <c r="B7" s="1">
-        <v>1.0069999999999999</v>
+        <v>1.008</v>
       </c>
       <c r="C7" s="1">
-        <v>77.599999999999994</v>
+        <v>80.2</v>
       </c>
       <c r="D7" s="1">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="E7" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F7" s="1">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G7" s="1">
         <v>0.51</v>
@@ -1697,38 +1697,38 @@
         <v>735</v>
       </c>
       <c r="I7" s="1">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="J7" s="1">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="K7" s="1">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L7" s="1">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M7" s="1">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1">
-        <v>-1.82</v>
+        <v>-1.9</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.6</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="Y7" s="1"/>
     </row>
@@ -1737,119 +1737,119 @@
         <v>38</v>
       </c>
       <c r="B8" s="1">
-        <v>1.1259999999999999</v>
+        <v>1.948</v>
       </c>
       <c r="C8" s="1">
-        <v>96.1</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="D8" s="1">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="E8" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F8" s="1">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H8" s="1">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="I8" s="1">
         <v>730</v>
       </c>
       <c r="J8" s="1">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="K8" s="1">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L8" s="1">
         <v>737</v>
       </c>
       <c r="M8" s="1">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1">
-        <v>-1.29</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>-0.08</v>
+        <v>-0.03</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="X8" s="1">
-        <v>0.79</v>
+        <v>0.92</v>
       </c>
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1">
-        <v>1.0680000000000001</v>
+        <v>1.117</v>
       </c>
       <c r="C9" s="1">
-        <v>95.6</v>
+        <v>106.4</v>
       </c>
       <c r="D9" s="1">
         <v>0.47</v>
       </c>
       <c r="E9" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F9" s="1">
         <v>0.14000000000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="H9" s="1">
         <v>734</v>
       </c>
       <c r="I9" s="1">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J9" s="1">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="K9" s="1">
         <v>736</v>
       </c>
       <c r="L9" s="1">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M9" s="1">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1">
-        <v>-2.5299999999999998</v>
+        <v>-2.59</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1">
-        <v>0.69</v>
+        <v>0.71</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.51</v>
       </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
@@ -1859,59 +1859,59 @@
         <v>40</v>
       </c>
       <c r="B10" s="1">
-        <v>1.083</v>
+        <v>1.4670000000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>117</v>
+        <v>15.5</v>
       </c>
       <c r="D10" s="1">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="E10" s="1">
         <v>0.49</v>
       </c>
       <c r="F10" s="1">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G10" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H10" s="1">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="I10" s="1">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="J10" s="1">
-        <v>1460</v>
+        <v>1467</v>
       </c>
       <c r="K10" s="1">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="L10" s="1">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="M10" s="1">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="N10" s="1">
-        <v>-2.41</v>
+        <v>-1.49</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1">
-        <v>-0.33</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1">
-        <v>0.87</v>
+        <v>1.83</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="Y10" s="1"/>
     </row>
@@ -1920,56 +1920,56 @@
         <v>41</v>
       </c>
       <c r="B11" s="1">
-        <v>1.052</v>
+        <v>3.1869999999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>31.1</v>
+        <v>38.4</v>
       </c>
       <c r="D11" s="1">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="E11" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="1">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="G11" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="H11" s="1">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I11" s="1">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J11" s="1">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="K11" s="1">
         <v>738</v>
       </c>
       <c r="L11" s="1">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="M11" s="1">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="N11" s="1">
-        <v>-0.21</v>
+        <v>-0.23</v>
       </c>
       <c r="O11" s="1">
-        <v>-1.55</v>
+        <v>-1.56</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="U11" s="1">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -1981,19 +1981,19 @@
         <v>42</v>
       </c>
       <c r="B12" s="1">
-        <v>1.9330000000000001</v>
+        <v>2.448</v>
       </c>
       <c r="C12" s="1">
-        <v>13.8</v>
+        <v>43.2</v>
       </c>
       <c r="D12" s="1">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="E12" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F12" s="1">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="G12" s="1">
         <v>0.5</v>
@@ -2002,59 +2002,59 @@
         <v>739</v>
       </c>
       <c r="I12" s="1">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J12" s="1">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="K12" s="1">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="L12" s="1">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="M12" s="1">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="N12" s="1">
-        <v>-1.33</v>
+        <v>-1.68</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1">
-        <v>-0.6</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="1">
-        <v>1.046</v>
+        <v>1.06</v>
       </c>
       <c r="C13" s="1">
-        <v>71</v>
+        <v>102.6</v>
       </c>
       <c r="D13" s="1">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="E13" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="1">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="G13" s="1">
         <v>0.51</v>
@@ -2063,10 +2063,10 @@
         <v>733</v>
       </c>
       <c r="I13" s="1">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="J13" s="1">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="K13" s="1">
         <v>736</v>
@@ -2079,26 +2079,26 @@
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1">
-        <v>-3.36</v>
+        <v>-3.26</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="R13" s="1">
-        <v>-0.88</v>
+        <v>-0.78</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="X13" s="1">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="Y13" s="1"/>
     </row>
@@ -2107,58 +2107,58 @@
         <v>44</v>
       </c>
       <c r="B14" s="1">
-        <v>1.052</v>
+        <v>1.177</v>
       </c>
       <c r="C14" s="1">
-        <v>61.8</v>
+        <v>87.1</v>
       </c>
       <c r="D14" s="1">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="E14" s="1">
         <v>0.51</v>
       </c>
       <c r="F14" s="1">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="G14" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H14" s="1">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I14" s="1">
         <v>723</v>
       </c>
       <c r="J14" s="1">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="K14" s="1">
         <v>737</v>
       </c>
       <c r="L14" s="1">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="M14" s="1">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="N14" s="1">
-        <v>-0.71</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="O14" s="1">
-        <v>-1.7</v>
+        <v>-1.89</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1">
-        <v>0.45</v>
+        <v>0.59</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1">
-        <v>0.99</v>
+        <v>0.85</v>
       </c>
       <c r="U14" s="1">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -2172,127 +2172,127 @@
         <v>45</v>
       </c>
       <c r="B15" s="1">
-        <v>1.7010000000000001</v>
+        <v>1.149</v>
       </c>
       <c r="C15" s="1">
-        <v>16</v>
+        <v>99.1</v>
       </c>
       <c r="D15" s="1">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="E15" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F15" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G15" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H15" s="1">
+        <v>739</v>
+      </c>
+      <c r="I15" s="1">
+        <v>724</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1463</v>
+      </c>
+      <c r="K15" s="1">
         <v>740</v>
       </c>
-      <c r="I15" s="1">
-        <v>730</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1470</v>
-      </c>
-      <c r="K15" s="1">
-        <v>738</v>
-      </c>
       <c r="L15" s="1">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="M15" s="1">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="N15" s="1">
-        <v>-0.82</v>
+        <v>-1.7</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1">
-        <v>-0.56999999999999995</v>
+        <v>-0.73</v>
       </c>
       <c r="R15" s="1">
-        <v>-0.08</v>
+        <v>0.08</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1">
-        <v>1.76</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1">
-        <v>0.63</v>
+        <v>0.8</v>
       </c>
       <c r="X15" s="1">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="1">
-        <v>1.056</v>
+        <v>1.3440000000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>78.599999999999994</v>
+        <v>71.2</v>
       </c>
       <c r="D16" s="1">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="E16" s="1">
         <v>0.5</v>
       </c>
       <c r="F16" s="1">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G16" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H16" s="1">
         <v>733</v>
       </c>
       <c r="I16" s="1">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="J16" s="1">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="K16" s="1">
         <v>735</v>
       </c>
       <c r="L16" s="1">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="M16" s="1">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="N16" s="1">
-        <v>-0.86</v>
+        <v>-0.89</v>
       </c>
       <c r="O16" s="1">
-        <v>-3.27</v>
+        <v>-3.21</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1">
-        <v>0.65</v>
+        <v>0.72</v>
       </c>
       <c r="U16" s="1">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1">
-        <v>0.89</v>
+        <v>0.94</v>
       </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
@@ -2302,13 +2302,13 @@
         <v>47</v>
       </c>
       <c r="B17" s="1">
-        <v>1.234</v>
+        <v>1.042</v>
       </c>
       <c r="C17" s="1">
-        <v>87.2</v>
+        <v>128.19999999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="E17" s="1">
         <v>0.51</v>
@@ -2317,52 +2317,52 @@
         <v>0.12</v>
       </c>
       <c r="G17" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H17" s="1">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I17" s="1">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="J17" s="1">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="K17" s="1">
         <v>735</v>
       </c>
       <c r="L17" s="1">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M17" s="1">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="N17" s="1">
-        <v>-0.82</v>
+        <v>-0.69</v>
       </c>
       <c r="O17" s="1">
-        <v>-3.13</v>
+        <v>-3.57</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1">
-        <v>1.63</v>
+        <v>1.93</v>
       </c>
       <c r="R17" s="1">
-        <v>-0.25</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1">
-        <v>0.93</v>
+        <v>0.74</v>
       </c>
       <c r="U17" s="1">
-        <v>1.1299999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1">
-        <v>1.1299999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="X17" s="1">
-        <v>0.97</v>
+        <v>0.94</v>
       </c>
       <c r="Y17" s="1"/>
     </row>
@@ -2371,45 +2371,45 @@
         <v>48</v>
       </c>
       <c r="B18" s="1">
-        <v>1.2050000000000001</v>
+        <v>1.5229999999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>42.8</v>
+        <v>70.2</v>
       </c>
       <c r="D18" s="1">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="E18" s="1">
         <v>0.5</v>
       </c>
       <c r="F18" s="1">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G18" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="H18" s="1">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I18" s="1">
         <v>722</v>
       </c>
       <c r="J18" s="1">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="K18" s="1">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L18" s="1">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="M18" s="1">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1">
-        <v>-1.9</v>
+        <v>-2</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -2417,7 +2417,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
@@ -2428,22 +2428,22 @@
         <v>49</v>
       </c>
       <c r="B19" s="1">
-        <v>1.0209999999999999</v>
+        <v>1.1679999999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>59.5</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="D19" s="1">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="E19" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F19" s="1">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="G19" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H19" s="1">
         <v>734</v>
@@ -2458,10 +2458,10 @@
         <v>737</v>
       </c>
       <c r="L19" s="1">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="M19" s="1">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -2469,7 +2469,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1">
-        <v>-0.64</v>
+        <v>-0.63</v>
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -2477,7 +2477,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -2485,40 +2485,40 @@
         <v>50</v>
       </c>
       <c r="B20" s="1">
-        <v>1.016</v>
+        <v>1.1659999999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>58.6</v>
+        <v>63.1</v>
       </c>
       <c r="D20" s="1">
         <v>0.47</v>
       </c>
       <c r="E20" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F20" s="1">
         <v>0.14000000000000001</v>
       </c>
       <c r="G20" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H20" s="1">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I20" s="1">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="J20" s="1">
         <v>1462</v>
       </c>
       <c r="K20" s="1">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L20" s="1">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="M20" s="1">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -2528,17 +2528,17 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1">
-        <v>-1.06</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -2576,7 +2576,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="15" priority="11">
-      <formula>H2&lt;738</formula>
+      <formula>H2&lt;735</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I20">
@@ -2589,7 +2589,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="9">
-      <formula>I2&lt;719</formula>
+      <formula>I2&lt;715</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J20">
@@ -2602,7 +2602,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="13" priority="7">
-      <formula>J2&lt;1452</formula>
+      <formula>J2&lt;1448</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K20">
@@ -2615,7 +2615,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="5">
-      <formula>K2&lt;740</formula>
+      <formula>K2&lt;737</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L20">
@@ -2628,7 +2628,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="11" priority="3">
-      <formula>L2&lt;727</formula>
+      <formula>L2&lt;725</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M20">
@@ -2641,7 +2641,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="1">
-      <formula>M2&lt;1463</formula>
+      <formula>M2&lt;1461</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2654,7 +2654,7 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2735,22 +2735,22 @@
         <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0229999999999999</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>187.9</v>
+        <v>219.9</v>
       </c>
       <c r="D2" s="1">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="E2" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F2" s="1">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="G2" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="1">
         <v>741</v>
@@ -2762,10 +2762,10 @@
         <v>1468</v>
       </c>
       <c r="K2" s="1">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L2" s="1">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M2" s="1">
         <v>1481</v>
@@ -2786,22 +2786,22 @@
         <v>61</v>
       </c>
       <c r="B3" s="1">
-        <v>1.008</v>
+        <v>1.012</v>
       </c>
       <c r="C3" s="1">
-        <v>79.5</v>
+        <v>142.6</v>
       </c>
       <c r="D3" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="E3" s="1">
         <v>0.48</v>
       </c>
-      <c r="E3" s="1">
-        <v>0.5</v>
-      </c>
       <c r="F3" s="1">
-        <v>0.27</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G3" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H3" s="1">
         <v>738</v>
@@ -2813,24 +2813,24 @@
         <v>1467</v>
       </c>
       <c r="K3" s="1">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L3" s="1">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M3" s="1">
         <v>1480</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1">
-        <v>0.62</v>
+        <v>0.51</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1">
-        <v>0.68</v>
+        <v>0.42</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
@@ -2841,22 +2841,22 @@
         <v>62</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0640000000000001</v>
+        <v>1.0389999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>194.8</v>
+        <v>141.1</v>
       </c>
       <c r="D4" s="1">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="E4" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F4" s="1">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="G4" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H4" s="1">
         <v>730</v>
@@ -2868,26 +2868,26 @@
         <v>1446</v>
       </c>
       <c r="K4" s="1">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L4" s="1">
         <v>724</v>
       </c>
       <c r="M4" s="1">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1">
-        <v>2.39</v>
+        <v>2.41</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="W4" s="1"/>
     </row>
@@ -2896,13 +2896,13 @@
         <v>63</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0720000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="C5" s="1">
-        <v>103.9</v>
+        <v>106.3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="E5" s="1">
         <v>0.5</v>
@@ -2923,25 +2923,25 @@
         <v>1461</v>
       </c>
       <c r="K5" s="1">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="L5" s="1">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M5" s="1">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1">
-        <v>-1.24</v>
+        <v>-1.26</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -2951,10 +2951,10 @@
         <v>64</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0429999999999999</v>
+        <v>1.018</v>
       </c>
       <c r="C6" s="1">
-        <v>431.2</v>
+        <v>358</v>
       </c>
       <c r="D6" s="1">
         <v>0.48</v>
@@ -2963,10 +2963,10 @@
         <v>0.5</v>
       </c>
       <c r="F6" s="1">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="G6" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="1">
         <v>727</v>
@@ -2981,24 +2981,24 @@
         <v>730</v>
       </c>
       <c r="L6" s="1">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="M6" s="1">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1">
-        <v>-0.75</v>
+        <v>-0.76</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -3006,31 +3006,31 @@
         <v>65</v>
       </c>
       <c r="B7" s="1">
-        <v>1.05</v>
+        <v>1.038</v>
       </c>
       <c r="C7" s="1">
-        <v>87.9</v>
+        <v>74.7</v>
       </c>
       <c r="D7" s="1">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="E7" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F7" s="1">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="G7" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H7" s="1">
         <v>736</v>
       </c>
       <c r="I7" s="1">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="J7" s="1">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="K7" s="1">
         <v>741</v>
@@ -3042,14 +3042,14 @@
         <v>1473</v>
       </c>
       <c r="N7" s="1">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -3061,57 +3061,57 @@
         <v>66</v>
       </c>
       <c r="B8" s="1">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="C8" s="1">
-        <v>164.2</v>
+        <v>186.1</v>
       </c>
       <c r="D8" s="1">
         <v>0.49</v>
       </c>
       <c r="E8" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F8" s="1">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="G8" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H8" s="1">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I8" s="1">
         <v>716</v>
       </c>
       <c r="J8" s="1">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="K8" s="1">
         <v>732</v>
       </c>
       <c r="L8" s="1">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M8" s="1">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.04</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="W8" s="1"/>
     </row>
@@ -3120,22 +3120,22 @@
         <v>67</v>
       </c>
       <c r="B9" s="1">
-        <v>1.081</v>
+        <v>1.2290000000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>163.6</v>
+        <v>162.5</v>
       </c>
       <c r="D9" s="1">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="E9" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F9" s="1">
         <v>0.25</v>
       </c>
       <c r="G9" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="H9" s="1">
         <v>727</v>
@@ -3157,16 +3157,16 @@
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P9" s="1">
-        <v>-2.27</v>
+        <v>-2.2599999999999998</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="U9" s="1">
         <v>0.53</v>
@@ -3179,10 +3179,10 @@
         <v>68</v>
       </c>
       <c r="B10" s="1">
-        <v>1.012</v>
+        <v>1.0329999999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>125.9</v>
+        <v>160.4</v>
       </c>
       <c r="D10" s="1">
         <v>0.49</v>
@@ -3194,42 +3194,42 @@
         <v>0.16</v>
       </c>
       <c r="G10" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H10" s="1">
         <v>728</v>
       </c>
       <c r="I10" s="1">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="J10" s="1">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="K10" s="1">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L10" s="1">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M10" s="1">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1">
-        <v>-1.1299999999999999</v>
+        <v>-1.06</v>
       </c>
       <c r="Q10" s="1">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="V10" s="1">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="W10" s="1"/>
     </row>
@@ -3238,16 +3238,16 @@
         <v>69</v>
       </c>
       <c r="B11" s="1">
-        <v>1.0369999999999999</v>
+        <v>1.008</v>
       </c>
       <c r="C11" s="1">
-        <v>296.89999999999998</v>
+        <v>276.2</v>
       </c>
       <c r="D11" s="1">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="E11" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="1">
         <v>0.38</v>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -3297,37 +3297,37 @@
         <v>70</v>
       </c>
       <c r="B12" s="1">
-        <v>1.024</v>
+        <v>1.0409999999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>134.4</v>
+        <v>186.1</v>
       </c>
       <c r="D12" s="1">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="E12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="G12" s="1">
         <v>0.51</v>
       </c>
-      <c r="F12" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.5</v>
-      </c>
       <c r="H12" s="1">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="I12" s="1">
         <v>720</v>
       </c>
       <c r="J12" s="1">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="K12" s="1">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="L12" s="1">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M12" s="1">
         <v>1459</v>
@@ -3336,19 +3336,19 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1">
-        <v>2.17</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>-0.53</v>
+        <v>-0.5</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="W12" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -3356,19 +3356,19 @@
         <v>71</v>
       </c>
       <c r="B13" s="1">
-        <v>1.014</v>
+        <v>1.371</v>
       </c>
       <c r="C13" s="1">
-        <v>102.3</v>
+        <v>94.7</v>
       </c>
       <c r="D13" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="E13" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F13" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G13" s="1">
         <v>0.5</v>
@@ -3386,28 +3386,28 @@
         <v>732</v>
       </c>
       <c r="L13" s="1">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="M13" s="1">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1">
-        <v>-1.26</v>
+        <v>-1.24</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1">
-        <v>-0.95</v>
+        <v>-0.93</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -3415,19 +3415,19 @@
         <v>72</v>
       </c>
       <c r="B14" s="1">
-        <v>1.0329999999999999</v>
+        <v>1.0780000000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>89</v>
+        <v>101.7</v>
       </c>
       <c r="D14" s="1">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="E14" s="1">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="F14" s="1">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="G14" s="1">
         <v>0.5</v>
@@ -3451,19 +3451,19 @@
         <v>1469</v>
       </c>
       <c r="N14" s="1">
-        <v>2.15</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="O14" s="1">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="T14" s="1">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -3474,10 +3474,10 @@
         <v>73</v>
       </c>
       <c r="B15" s="1">
-        <v>1.032</v>
+        <v>1.06</v>
       </c>
       <c r="C15" s="1">
-        <v>172.2</v>
+        <v>145.5</v>
       </c>
       <c r="D15" s="1">
         <v>0.5</v>
@@ -3486,28 +3486,28 @@
         <v>0.51</v>
       </c>
       <c r="F15" s="1">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="G15" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H15" s="1">
         <v>725</v>
       </c>
       <c r="I15" s="1">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J15" s="1">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="K15" s="1">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L15" s="1">
         <v>717</v>
       </c>
       <c r="M15" s="1">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="N15" s="1">
         <v>1.48</v>
@@ -3515,16 +3515,16 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1">
-        <v>2.84</v>
+        <v>2.85</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="W15" s="1"/>
     </row>
@@ -3533,16 +3533,16 @@
         <v>74</v>
       </c>
       <c r="B16" s="1">
-        <v>1.123</v>
+        <v>1.0489999999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>95.4</v>
+        <v>88.2</v>
       </c>
       <c r="D16" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="E16" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F16" s="1">
         <v>0.19</v>
@@ -3551,34 +3551,34 @@
         <v>0.51</v>
       </c>
       <c r="H16" s="1">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I16" s="1">
         <v>721</v>
       </c>
       <c r="J16" s="1">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="K16" s="1">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="L16" s="1">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M16" s="1">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="N16" s="1">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1">
-        <v>-1.1000000000000001</v>
+        <v>-1.01</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1">
@@ -3592,13 +3592,13 @@
         <v>75</v>
       </c>
       <c r="B17" s="1">
-        <v>1.077</v>
+        <v>1.097</v>
       </c>
       <c r="C17" s="1">
-        <v>110.9</v>
+        <v>99.8</v>
       </c>
       <c r="D17" s="1">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="E17" s="1">
         <v>0.51</v>
@@ -3607,37 +3607,37 @@
         <v>0.23</v>
       </c>
       <c r="G17" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H17" s="1">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="I17" s="1">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J17" s="1">
         <v>1446</v>
       </c>
       <c r="K17" s="1">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="L17" s="1">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="M17" s="1">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="N17" s="1">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1">
-        <v>-1.48</v>
+        <v>-1.55</v>
       </c>
       <c r="S17" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -3651,10 +3651,10 @@
         <v>76</v>
       </c>
       <c r="B18" s="1">
-        <v>1.0109999999999999</v>
+        <v>1.119</v>
       </c>
       <c r="C18" s="1">
-        <v>112.4</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="D18" s="1">
         <v>0.48</v>
@@ -3663,10 +3663,10 @@
         <v>0.51</v>
       </c>
       <c r="F18" s="1">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="G18" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H18" s="1">
         <v>727</v>
@@ -3678,34 +3678,34 @@
         <v>1441</v>
       </c>
       <c r="K18" s="1">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="L18" s="1">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M18" s="1">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P18" s="1">
-        <v>-2.04</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="U18" s="1">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="V18" s="1">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="W18" s="1"/>
     </row>
@@ -3714,16 +3714,16 @@
         <v>77</v>
       </c>
       <c r="B19" s="1">
-        <v>1.1870000000000001</v>
+        <v>1.1779999999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>135.69999999999999</v>
+        <v>142</v>
       </c>
       <c r="D19" s="1">
         <v>0.48</v>
       </c>
       <c r="E19" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F19" s="1">
         <v>0.17</v>
@@ -3744,29 +3744,29 @@
         <v>726</v>
       </c>
       <c r="L19" s="1">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M19" s="1">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.05</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1">
         <v>2.36</v>
       </c>
       <c r="R19" s="1">
-        <v>-0.57999999999999996</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="W19" s="1">
         <v>0.34</v>
@@ -3777,13 +3777,13 @@
         <v>78</v>
       </c>
       <c r="B20" s="1">
-        <v>1.01</v>
+        <v>1.0369999999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>126.8</v>
+        <v>161.5</v>
       </c>
       <c r="D20" s="1">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="E20" s="1">
         <v>0.49</v>
@@ -3792,47 +3792,47 @@
         <v>0.26</v>
       </c>
       <c r="G20" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H20" s="1">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I20" s="1">
         <v>713</v>
       </c>
       <c r="J20" s="1">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="K20" s="1">
         <v>727</v>
       </c>
       <c r="L20" s="1">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M20" s="1">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1">
-        <v>1.1200000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="P20" s="1">
-        <v>-2.16</v>
+        <v>-2.15</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1">
-        <v>-0.34</v>
+        <v>-0.32</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="U20" s="1">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -3840,16 +3840,16 @@
         <v>79</v>
       </c>
       <c r="B21" s="1">
-        <v>1.0589999999999999</v>
+        <v>1.044</v>
       </c>
       <c r="C21" s="1">
-        <v>139.69999999999999</v>
+        <v>136.4</v>
       </c>
       <c r="D21" s="1">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="E21" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F21" s="1">
         <v>0.17</v>
@@ -3858,44 +3858,44 @@
         <v>0.5</v>
       </c>
       <c r="H21" s="1">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I21" s="1">
         <v>717</v>
       </c>
       <c r="J21" s="1">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="K21" s="1">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L21" s="1">
         <v>730</v>
       </c>
       <c r="M21" s="1">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1">
-        <v>-1.1000000000000001</v>
+        <v>-1.06</v>
       </c>
       <c r="Q21" s="1">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="R21" s="1">
-        <v>-0.37</v>
+        <v>-0.4</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="V21" s="1">
-        <v>0.59</v>
+        <v>0.53</v>
       </c>
       <c r="W21" s="1">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -3903,10 +3903,10 @@
         <v>80</v>
       </c>
       <c r="B22" s="1">
-        <v>1.0580000000000001</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>143.80000000000001</v>
+        <v>180.3</v>
       </c>
       <c r="D22" s="1">
         <v>0.5</v>
@@ -3915,10 +3915,10 @@
         <v>0.51</v>
       </c>
       <c r="F22" s="1">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="G22" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H22" s="1">
         <v>722</v>
@@ -3930,34 +3930,34 @@
         <v>1431</v>
       </c>
       <c r="K22" s="1">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L22" s="1">
         <v>720</v>
       </c>
       <c r="M22" s="1">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="N22" s="1">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="O22" s="1">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1">
-        <v>2.69</v>
+        <v>2.62</v>
       </c>
       <c r="R22" s="1"/>
       <c r="S22" s="1">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="T22" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="W22" s="1"/>
     </row>
@@ -3966,10 +3966,10 @@
         <v>81</v>
       </c>
       <c r="B23" s="1">
-        <v>1.403</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>163.1</v>
+        <v>146.19999999999999</v>
       </c>
       <c r="D23" s="1">
         <v>0.47</v>
@@ -3981,64 +3981,64 @@
         <v>0.3</v>
       </c>
       <c r="G23" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="H23" s="1">
         <v>724</v>
       </c>
       <c r="I23" s="1">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="J23" s="1">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="K23" s="1">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L23" s="1">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M23" s="1">
         <v>1450</v>
       </c>
       <c r="N23" s="1">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="O23" s="1">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="P23" s="1">
-        <v>-2.21</v>
+        <v>-2.17</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="T23" s="1">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="U23" s="1">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B24" s="1">
-        <v>1.4450000000000001</v>
+        <v>1.0580000000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>149.6</v>
+        <v>108.6</v>
       </c>
       <c r="D24" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="E24" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F24" s="1">
         <v>0.21</v>
@@ -4050,40 +4050,40 @@
         <v>728</v>
       </c>
       <c r="I24" s="1">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="J24" s="1">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="K24" s="1">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L24" s="1">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M24" s="1">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="N24" s="1">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1">
-        <v>-0.84</v>
+        <v>-0.86</v>
       </c>
       <c r="Q24" s="1">
-        <v>2.6</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
       <c r="T24" s="1"/>
       <c r="U24" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="V24" s="1">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="W24" s="1"/>
     </row>
@@ -4092,22 +4092,22 @@
         <v>83</v>
       </c>
       <c r="B25" s="1">
-        <v>1.1359999999999999</v>
+        <v>1.0529999999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>124.5</v>
+        <v>105.1</v>
       </c>
       <c r="D25" s="1">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="E25" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F25" s="1">
         <v>0.28000000000000003</v>
       </c>
       <c r="G25" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H25" s="1">
         <v>717</v>
@@ -4122,55 +4122,55 @@
         <v>719</v>
       </c>
       <c r="L25" s="1">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="M25" s="1">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="N25" s="1">
-        <v>2.1800000000000002</v>
+        <v>2.09</v>
       </c>
       <c r="O25" s="1">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1">
-        <v>-1.42</v>
+        <v>-1.36</v>
       </c>
       <c r="S25" s="1">
         <v>0.56999999999999995</v>
       </c>
       <c r="T25" s="1">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B26" s="1">
-        <v>1.1060000000000001</v>
+        <v>1.2090000000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>122.8</v>
+        <v>107.4</v>
       </c>
       <c r="D26" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="E26" s="1">
         <v>0.5</v>
       </c>
       <c r="F26" s="1">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="G26" s="1">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="H26" s="1">
         <v>723</v>
@@ -4182,35 +4182,35 @@
         <v>1431</v>
       </c>
       <c r="K26" s="1">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L26" s="1">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M26" s="1">
         <v>1448</v>
       </c>
       <c r="N26" s="1">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1">
-        <v>2.4900000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="R26" s="1">
-        <v>-0.79</v>
+        <v>-0.78</v>
       </c>
       <c r="S26" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="W26" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -4218,19 +4218,19 @@
         <v>85</v>
       </c>
       <c r="B27" s="1">
-        <v>1.1379999999999999</v>
+        <v>1.014</v>
       </c>
       <c r="C27" s="1">
-        <v>120.6</v>
+        <v>110.1</v>
       </c>
       <c r="D27" s="1">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="E27" s="1">
         <v>0.5</v>
       </c>
       <c r="F27" s="1">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="G27" s="1">
         <v>0.5</v>
@@ -4239,33 +4239,33 @@
         <v>726</v>
       </c>
       <c r="I27" s="1">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="J27" s="1">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="K27" s="1">
         <v>729</v>
       </c>
       <c r="L27" s="1">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="M27" s="1">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="N27" s="1">
-        <v>1.1299999999999999</v>
+        <v>1.23</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1">
-        <v>-1.03</v>
+        <v>-0.99</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1">
-        <v>-1.39</v>
+        <v>-1.44</v>
       </c>
       <c r="S27" s="1">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="T27" s="1"/>
       <c r="U27" s="1">
@@ -4273,7 +4273,7 @@
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -4281,22 +4281,22 @@
         <v>86</v>
       </c>
       <c r="B28" s="1">
-        <v>1.1399999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="C28" s="1">
-        <v>120.3</v>
+        <v>65</v>
       </c>
       <c r="D28" s="1">
         <v>0.48</v>
       </c>
       <c r="E28" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F28" s="1">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="G28" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H28" s="1">
         <v>725</v>
@@ -4318,29 +4318,29 @@
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1">
-        <v>1.1100000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="P28" s="1">
-        <v>-1.99</v>
+        <v>-1.9</v>
       </c>
       <c r="Q28" s="1">
-        <v>0.34</v>
+        <v>0.54</v>
       </c>
       <c r="R28" s="1">
-        <v>-0.28999999999999998</v>
+        <v>-0.32</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="U28" s="1">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
       <c r="V28" s="1">
-        <v>0.78</v>
+        <v>0.92</v>
       </c>
       <c r="W28" s="1">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -4348,10 +4348,10 @@
         <v>87</v>
       </c>
       <c r="B29" s="1">
-        <v>1.1950000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="C29" s="1">
-        <v>121.1</v>
+        <v>184</v>
       </c>
       <c r="D29" s="1">
         <v>0.48</v>
@@ -4360,121 +4360,121 @@
         <v>0.5</v>
       </c>
       <c r="F29" s="1">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="G29" s="1">
         <v>0.5</v>
       </c>
       <c r="H29" s="1">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I29" s="1">
         <v>704</v>
       </c>
       <c r="J29" s="1">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="K29" s="1">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L29" s="1">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M29" s="1">
         <v>1446</v>
       </c>
       <c r="N29" s="1">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="O29" s="1">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P29" s="1">
-        <v>-1.77</v>
+        <v>-1.75</v>
       </c>
       <c r="Q29" s="1">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1">
-        <v>0.61</v>
+        <v>0.54</v>
       </c>
       <c r="T29" s="1">
         <v>0.52</v>
       </c>
       <c r="U29" s="1">
-        <v>0.65</v>
+        <v>0.59</v>
       </c>
       <c r="V29" s="1">
-        <v>0.78</v>
+        <v>0.69</v>
       </c>
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B30" s="1">
-        <v>1.034</v>
+        <v>1.1259999999999999</v>
       </c>
       <c r="C30" s="1">
-        <v>130.69999999999999</v>
+        <v>156.4</v>
       </c>
       <c r="D30" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="E30" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F30" s="1">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="G30" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H30" s="1">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="I30" s="1">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J30" s="1">
         <v>1429</v>
       </c>
       <c r="K30" s="1">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L30" s="1">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="M30" s="1">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="N30" s="1">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="O30" s="1">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R30" s="1">
-        <v>-0.95</v>
+        <v>-0.89</v>
       </c>
       <c r="S30" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.52</v>
       </c>
       <c r="T30" s="1">
         <v>0.5</v>
       </c>
       <c r="U30" s="1"/>
       <c r="V30" s="1">
-        <v>0.74</v>
+        <v>0.69</v>
       </c>
       <c r="W30" s="1">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -4482,13 +4482,13 @@
         <v>89</v>
       </c>
       <c r="B31" s="1">
-        <v>1.2150000000000001</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="C31" s="1">
-        <v>165.6</v>
+        <v>171.6</v>
       </c>
       <c r="D31" s="1">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="E31" s="1">
         <v>0.5</v>
@@ -4500,13 +4500,13 @@
         <v>0.51</v>
       </c>
       <c r="H31" s="1">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="I31" s="1">
         <v>706</v>
       </c>
       <c r="J31" s="1">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="K31" s="1">
         <v>721</v>
@@ -4518,44 +4518,44 @@
         <v>1451</v>
       </c>
       <c r="N31" s="1">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="O31" s="1">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="P31" s="1">
         <v>-1.83</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1">
-        <v>-0.82</v>
+        <v>-0.79</v>
       </c>
       <c r="S31" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="T31" s="1">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="U31" s="1">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B32" s="1">
-        <v>1.038</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="C32" s="1">
-        <v>119.2</v>
+        <v>107.7</v>
       </c>
       <c r="D32" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="E32" s="1">
         <v>0.5</v>
@@ -4564,122 +4564,122 @@
         <v>0.22</v>
       </c>
       <c r="G32" s="1">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="H32" s="1">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="I32" s="1">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J32" s="1">
         <v>1432</v>
       </c>
       <c r="K32" s="1">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="L32" s="1">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M32" s="1">
         <v>1448</v>
       </c>
       <c r="N32" s="1">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1">
-        <v>-0.8</v>
+        <v>-0.84</v>
       </c>
       <c r="Q32" s="1">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="R32" s="1">
-        <v>-0.67</v>
+        <v>-0.63</v>
       </c>
       <c r="S32" s="1">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="T32" s="1"/>
       <c r="U32" s="1">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="V32" s="1">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="W32" s="1">
         <v>0.64</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B33" s="1">
-        <v>1.087</v>
+        <v>1.052</v>
       </c>
       <c r="C33" s="1">
-        <v>189.5</v>
+        <v>161.19999999999999</v>
       </c>
       <c r="D33" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="E33" s="1">
         <v>0.49</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0.5</v>
       </c>
       <c r="F33" s="1">
         <v>0.28999999999999998</v>
       </c>
       <c r="G33" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H33" s="1">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="I33" s="1">
         <v>705</v>
       </c>
       <c r="J33" s="1">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="K33" s="1">
         <v>723</v>
       </c>
       <c r="L33" s="1">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M33" s="1">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="N33" s="1">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="O33" s="1">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="P33" s="1">
-        <v>-1.6</v>
+        <v>-1.64</v>
       </c>
       <c r="Q33" s="1">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="R33" s="1">
-        <v>-0.7</v>
+        <v>-0.71</v>
       </c>
       <c r="S33" s="1">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="T33" s="1">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="U33" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.6</v>
       </c>
       <c r="V33" s="1">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="W33" s="1">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -4717,7 +4717,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="11">
-      <formula>H2&lt;722</formula>
+      <formula>H2&lt;719</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I33">
@@ -4730,7 +4730,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="9">
-      <formula>I2&lt;709</formula>
+      <formula>I2&lt;706</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J33">
@@ -4743,7 +4743,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="7">
-      <formula>J2&lt;1428</formula>
+      <formula>J2&lt;1426</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K33">
@@ -4756,7 +4756,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="5">
-      <formula>K2&lt;724</formula>
+      <formula>K2&lt;721</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L33">
@@ -4769,7 +4769,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>L2&lt;720</formula>
+      <formula>L2&lt;718</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M33">
@@ -4782,7 +4782,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>M2&lt;1450</formula>
+      <formula>M2&lt;1447</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
